--- a/SQL/書籍.xlsx
+++ b/SQL/書籍.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Desktop\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2633EF5-DB27-4998-87C0-EDF771CC34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D746C9-A77F-4373-A410-0E29C5E12C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{9E322BBC-4D02-464B-9593-44E50741217D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9E322BBC-4D02-464B-9593-44E50741217D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="書籍.xlsx" sheetId="2" r:id="rId2"/>
+    <sheet name="書籍.xlsx" sheetId="3" r:id="rId2"/>
+    <sheet name=".xlsx" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="24">
   <si>
     <t>書籍ID</t>
   </si>
@@ -196,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +218,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA48CD4-A92E-466E-9EE2-B3D2E46A5040}">
-  <dimension ref="B3:P63"/>
+  <dimension ref="B3:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:O63"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -551,10 +555,13 @@
     <col min="11" max="12" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.59765625" customWidth="1"/>
     <col min="15" max="15" width="16.296875" customWidth="1"/>
+    <col min="19" max="19" width="22.59765625" customWidth="1"/>
+    <col min="22" max="22" width="26.796875" customWidth="1"/>
+    <col min="30" max="30" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
@@ -642,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4">
         <v>1003</v>
       </c>
@@ -674,7 +681,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="2">
         <v>1004</v>
       </c>
@@ -706,7 +713,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="4">
         <v>1005</v>
       </c>
@@ -750,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="2">
         <v>1007</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="2">
         <v>1001</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2">
         <v>1002</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="4">
         <v>1003</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="2">
         <v>1004</v>
       </c>
@@ -1190,7 +1197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="4">
         <v>1005</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="4">
         <v>1006</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="2">
         <v>1007</v>
       </c>
@@ -1286,7 +1293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="2">
         <v>1008</v>
       </c>
@@ -1318,8 +1325,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="34" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="34" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="2">
         <v>1001</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="2">
         <v>1002</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="4">
         <v>1003</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="2">
         <v>1004</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:30" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="4">
         <v>1005</v>
       </c>
@@ -1547,7 +1554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:30" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="4">
         <v>1006</v>
       </c>
@@ -1585,7 +1592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="2">
         <v>1007</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="2">
         <v>1008</v>
       </c>
@@ -1661,9 +1668,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="51" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:16" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="45" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:30" ht="51" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="2:30" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,8 +1701,20 @@
       <c r="O45" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="2">
         <v>1001</v>
       </c>
@@ -1726,8 +1745,20 @@
       <c r="O46" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U46" s="2">
+        <v>1001</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="2">
         <v>1002</v>
       </c>
@@ -1758,8 +1789,20 @@
       <c r="O47" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U47" s="2">
+        <v>1002</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="4">
         <v>1003</v>
       </c>
@@ -1790,8 +1833,20 @@
       <c r="O48" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U48" s="4">
+        <v>1003</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>102</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="2">
         <v>1004</v>
       </c>
@@ -1822,8 +1877,20 @@
       <c r="O49" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U49" s="2">
+        <v>1004</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>102</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="4">
         <v>1005</v>
       </c>
@@ -1854,8 +1921,20 @@
       <c r="O50" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U50" s="4">
+        <v>1005</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>102</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="4">
         <v>1006</v>
       </c>
@@ -1880,8 +1959,20 @@
       <c r="L51" s="5">
         <v>38698</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U51" s="4">
+        <v>1006</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>101</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="2">
         <v>1007</v>
       </c>
@@ -1906,8 +1997,20 @@
       <c r="L52" s="3">
         <v>33792</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U52" s="2">
+        <v>1007</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="2">
         <v>1008</v>
       </c>
@@ -1932,9 +2035,21 @@
       <c r="L53" s="3">
         <v>37138</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="55" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="U53" s="2">
+        <v>1008</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>102</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="2">
         <v>1001</v>
       </c>
@@ -1962,7 +2077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="2">
         <v>1002</v>
       </c>
@@ -1976,7 +2091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="4">
         <v>1003</v>
       </c>
@@ -1990,7 +2105,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="2">
         <v>1004</v>
       </c>
@@ -2004,7 +2119,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="4">
         <v>1005</v>
       </c>
@@ -2018,7 +2133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="4">
         <v>1006</v>
       </c>
@@ -2032,7 +2147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="2">
         <v>1007</v>
       </c>
@@ -2046,7 +2161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:30" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="2">
         <v>1008</v>
       </c>
@@ -2067,11 +2182,543 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AC55F8-F889-4847-AF1E-E69A32BFC991}">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>600</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43101</v>
+      </c>
+      <c r="H3" s="2">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>600</v>
+      </c>
+      <c r="N3" s="3">
+        <v>43101</v>
+      </c>
+      <c r="O3" s="2">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>600</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43922</v>
+      </c>
+      <c r="H4" s="2">
+        <v>101</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2">
+        <v>600</v>
+      </c>
+      <c r="N4" s="3">
+        <v>43922</v>
+      </c>
+      <c r="O4" s="2">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>102</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42126</v>
+      </c>
+      <c r="H5" s="4">
+        <v>102</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="N5" s="5">
+        <v>42126</v>
+      </c>
+      <c r="O5" s="4">
+        <v>102</v>
+      </c>
+      <c r="P5" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>750</v>
+      </c>
+      <c r="G6" s="3">
+        <v>40972</v>
+      </c>
+      <c r="H6" s="2">
+        <v>103</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2">
+        <v>750</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40972</v>
+      </c>
+      <c r="O6" s="2">
+        <v>102</v>
+      </c>
+      <c r="P6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3850</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43514</v>
+      </c>
+      <c r="H7" s="4">
+        <v>104</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3850</v>
+      </c>
+      <c r="N7" s="5">
+        <v>43514</v>
+      </c>
+      <c r="O7" s="4">
+        <v>102</v>
+      </c>
+      <c r="P7" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>101</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>800</v>
+      </c>
+      <c r="G8" s="5">
+        <v>38698</v>
+      </c>
+      <c r="H8" s="4">
+        <v>104</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
+        <v>800</v>
+      </c>
+      <c r="N8" s="5">
+        <v>38698</v>
+      </c>
+      <c r="O8" s="4">
+        <v>101</v>
+      </c>
+      <c r="P8" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>33792</v>
+      </c>
+      <c r="H9" s="2">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="N9" s="3">
+        <v>33792</v>
+      </c>
+      <c r="O9" s="2">
+        <v>101</v>
+      </c>
+      <c r="P9" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2530</v>
+      </c>
+      <c r="G10" s="3">
+        <v>37138</v>
+      </c>
+      <c r="H10" s="2">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2530</v>
+      </c>
+      <c r="N10" s="3">
+        <v>37138</v>
+      </c>
+      <c r="O10" s="2">
+        <v>102</v>
+      </c>
+      <c r="P10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K13" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>101</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K14" s="2">
+        <v>101</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>102</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K15" s="4">
+        <v>102</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="2">
+        <v>103</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K16" s="2">
+        <v>102</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4">
+        <v>104</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K17" s="4">
+        <v>102</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="2">
+        <v>105</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="11:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K18" s="4">
+        <v>101</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K19" s="2">
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K20" s="2">
+        <v>102</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E15F533-23CE-42F3-8D02-075EABD39F74}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2086,10 +2733,14 @@
     <col min="11" max="11" width="8.796875" customWidth="1"/>
     <col min="12" max="12" width="12.796875" customWidth="1"/>
     <col min="13" max="13" width="4.8984375" customWidth="1"/>
+    <col min="15" max="15" width="14.796875" customWidth="1"/>
+    <col min="18" max="18" width="20.69921875" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:23" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,8 +2771,26 @@
       <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="2">
         <v>1001</v>
       </c>
@@ -2152,8 +2821,26 @@
       <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>600</v>
+      </c>
+      <c r="T3" s="3">
+        <v>43101</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="W3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="2">
         <v>1002</v>
       </c>
@@ -2184,8 +2871,26 @@
       <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <v>600</v>
+      </c>
+      <c r="T4" s="3">
+        <v>43922</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="W4" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="4">
         <v>1003</v>
       </c>
@@ -2216,8 +2921,26 @@
       <c r="O5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="T5" s="5">
+        <v>42126</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="W5" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2">
         <v>1004</v>
       </c>
@@ -2248,8 +2971,26 @@
       <c r="O6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="2">
+        <v>750</v>
+      </c>
+      <c r="T6" s="3">
+        <v>40972</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="W6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="4">
         <v>1005</v>
       </c>
@@ -2280,8 +3021,26 @@
       <c r="O7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="4">
+        <v>3850</v>
+      </c>
+      <c r="T7" s="5">
+        <v>43514</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="W7" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="4">
         <v>1006</v>
       </c>
@@ -2306,8 +3065,26 @@
       <c r="L8" s="5">
         <v>38698</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="4">
+        <v>800</v>
+      </c>
+      <c r="T8" s="5">
+        <v>38698</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="W8" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="2">
         <v>1007</v>
       </c>
@@ -2332,8 +3109,26 @@
       <c r="L9" s="3">
         <v>33792</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="T9" s="3">
+        <v>33792</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="W9" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="2">
         <v>1008</v>
       </c>
@@ -2358,9 +3153,27 @@
       <c r="L10" s="3">
         <v>37138</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="2:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2530</v>
+      </c>
+      <c r="T10" s="3">
+        <v>37138</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="W10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="2:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,8 +3186,20 @@
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="2">
         <v>1001</v>
       </c>
@@ -2387,8 +3212,20 @@
       <c r="F13" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="R13" s="2">
+        <v>101</v>
+      </c>
+      <c r="T13" s="2">
+        <v>101</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2">
         <v>1002</v>
       </c>
@@ -2401,8 +3238,20 @@
       <c r="F14" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q14" s="2">
+        <v>1002</v>
+      </c>
+      <c r="R14" s="2">
+        <v>101</v>
+      </c>
+      <c r="T14" s="2">
+        <v>101</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="4">
         <v>1003</v>
       </c>
@@ -2415,8 +3264,20 @@
       <c r="F15" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q15" s="4">
+        <v>1003</v>
+      </c>
+      <c r="R15" s="4">
+        <v>102</v>
+      </c>
+      <c r="T15" s="4">
+        <v>102</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2">
         <v>1004</v>
       </c>
@@ -2429,8 +3290,20 @@
       <c r="F16" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q16" s="2">
+        <v>1004</v>
+      </c>
+      <c r="R16" s="2">
+        <v>102</v>
+      </c>
+      <c r="T16" s="2">
+        <v>102</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4">
         <v>1005</v>
       </c>
@@ -2443,8 +3316,20 @@
       <c r="F17" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q17" s="4">
+        <v>1005</v>
+      </c>
+      <c r="R17" s="4">
+        <v>102</v>
+      </c>
+      <c r="T17" s="4">
+        <v>102</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="4">
         <v>1006</v>
       </c>
@@ -2457,8 +3342,20 @@
       <c r="F18" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q18" s="4">
+        <v>1006</v>
+      </c>
+      <c r="R18" s="4">
+        <v>101</v>
+      </c>
+      <c r="T18" s="4">
+        <v>101</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2">
         <v>1007</v>
       </c>
@@ -2471,8 +3368,20 @@
       <c r="F19" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q19" s="2">
+        <v>1007</v>
+      </c>
+      <c r="R19" s="2">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2">
+        <v>101</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2">
         <v>1008</v>
       </c>
@@ -2484,6 +3393,18 @@
       </c>
       <c r="F20" s="2">
         <v>105</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1008</v>
+      </c>
+      <c r="R20" s="2">
+        <v>102</v>
+      </c>
+      <c r="T20" s="2">
+        <v>102</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
